--- a/documentation/projektjournal-tnt.v1.xlsx
+++ b/documentation/projektjournal-tnt.v1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Nico hat viele Fortschritte im Pflichtenheft gemacht und kann diese noch mit wenig Nachbesserung abgeben.</t>
+  </si>
+  <si>
+    <t>Arbeitsplan</t>
+  </si>
+  <si>
+    <t>Tim hat den Arbeitsplan noch realisiert. Dies haben wir in einem Gant-Diagram umgesetzt. Tim konnte schon die ersten beiden Einträge einbauen.</t>
+  </si>
+  <si>
+    <t>Tim konnte den Arbeitsplan an den Zeitplan anlehnen, somit war dies keine grosse Arbeit. Jedoch hat das Diagramm zuerst die Daten uns nicht so angzeigt, wie wir möchten.</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <t>Elias hat den Projektplan realisiert. Elias konnte den Zeitplan schon in das Projekt integrieren, jedoch musste Tim zuerst den Arbeitsplan fertigstellen.</t>
+  </si>
+  <si>
+    <t>Ging gut und schnell voran, sobald Elias den Arbeitsplan von  Tim hatte.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +617,7 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,7 +651,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>20.25</v>
+        <v>23.25</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -920,30 +941,54 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>43368</v>
+      </c>
+      <c r="B20" s="10">
+        <v>90</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>43368</v>
+      </c>
+      <c r="B21" s="10">
+        <v>90</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
